--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,9 +40,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
@@ -55,16 +52,19 @@
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
+    <t>great</t>
   </si>
   <si>
     <t>love</t>
@@ -73,76 +73,70 @@
     <t>thanks</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>hand</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>care</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
-    <t>grocery</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -508,10 +502,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -569,13 +563,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -587,19 +581,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -611,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -619,13 +613,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.76</v>
+        <v>0.5821917808219178</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -637,19 +631,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -669,13 +663,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7142857142857143</v>
+        <v>0.2151162790697674</v>
       </c>
       <c r="C5">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D5">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -687,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>44</v>
+        <v>405</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -711,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -719,13 +713,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3476394849785407</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="C6">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="D6">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -737,119 +731,71 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>0.8482142857142857</v>
+      </c>
+      <c r="L6">
+        <v>95</v>
+      </c>
+      <c r="M6">
+        <v>95</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="L7">
+        <v>38</v>
+      </c>
+      <c r="M7">
+        <v>38</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K6">
-        <v>0.9</v>
-      </c>
-      <c r="L6">
-        <v>36</v>
-      </c>
-      <c r="M6">
-        <v>36</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.3023255813953488</v>
-      </c>
-      <c r="C7">
-        <v>26</v>
-      </c>
-      <c r="D7">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>60</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7">
-        <v>0.875</v>
-      </c>
-      <c r="L7">
-        <v>14</v>
-      </c>
-      <c r="M7">
-        <v>14</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.2375</v>
-      </c>
-      <c r="C8">
-        <v>19</v>
-      </c>
-      <c r="D8">
-        <v>19</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>61</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="K8">
-        <v>0.8431372549019608</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L8">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="M8">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -861,21 +807,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8235294117647058</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="L9">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M9">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -887,21 +833,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8235294117647058</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L10">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="M10">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -913,21 +859,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.8148148148148148</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L11">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="M11">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -939,21 +885,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7931034482758621</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L12">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M12">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -965,21 +911,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.7734375</v>
       </c>
       <c r="L13">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="M13">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -991,21 +937,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L14">
         <v>26</v>
       </c>
-      <c r="K14">
-        <v>0.7678571428571429</v>
-      </c>
-      <c r="L14">
-        <v>43</v>
-      </c>
       <c r="M14">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1017,21 +963,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.75</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="L15">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="M15">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1043,21 +989,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.7413793103448276</v>
+        <v>0.7</v>
       </c>
       <c r="L16">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="M16">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1069,21 +1015,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6923076923076923</v>
+        <v>0.6698113207547169</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1095,21 +1041,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6923076923076923</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L18">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="M18">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1121,21 +1067,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.684931506849315</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L19">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="M19">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1147,21 +1093,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.68</v>
+        <v>0.6</v>
       </c>
       <c r="L20">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1173,21 +1119,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.6060606060606061</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1199,21 +1145,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5600000000000001</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="L22">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1225,21 +1171,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5416666666666666</v>
+        <v>0.5195822454308094</v>
       </c>
       <c r="L23">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="M23">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1251,21 +1197,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>66</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5333333333333333</v>
+        <v>0.4764705882352941</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1277,21 +1223,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5211267605633803</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L25">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="M25">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1303,21 +1249,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>102</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4961240310077519</v>
+        <v>0.4203389830508474</v>
       </c>
       <c r="L26">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="M26">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1329,21 +1275,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>65</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.4857142857142857</v>
+        <v>0.3556485355648535</v>
       </c>
       <c r="L27">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="M27">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1355,21 +1301,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>18</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>0.3695652173913043</v>
+        <v>0.03691275167785235</v>
       </c>
       <c r="L28">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M28">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1381,59 +1327,59 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>58</v>
+        <v>861</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>0.04390243902439024</v>
+        <v>0.01260504201680672</v>
       </c>
       <c r="L29">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M29">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>392</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K30">
-        <v>0.03286384976525822</v>
+        <v>0.009342783505154639</v>
       </c>
       <c r="L30">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>412</v>
+        <v>3075</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,94 +46,97 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>love</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>support</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>protect</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
-    <t>19</t>
+    <t>grocery</t>
   </si>
   <si>
     <t>co</t>
@@ -494,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,7 +508,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -587,13 +590,13 @@
         <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9661016949152542</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -605,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -613,13 +616,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.5821917808219178</v>
+        <v>0.6198630136986302</v>
       </c>
       <c r="C4">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="D4">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -631,19 +634,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -655,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -663,13 +666,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2151162790697674</v>
+        <v>0.2169312169312169</v>
       </c>
       <c r="C5">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="D5">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -681,19 +684,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>405</v>
+        <v>148</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -705,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -713,13 +716,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2063492063492063</v>
+        <v>0.2015503875968992</v>
       </c>
       <c r="C6">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="D6">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -731,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>150</v>
+        <v>412</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.8482142857142857</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L6">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M6">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -755,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -763,13 +766,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8260869565217391</v>
+        <v>0.8046875</v>
       </c>
       <c r="L7">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="M7">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -781,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -789,13 +792,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8048780487804879</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L8">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="M8">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -807,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -815,13 +818,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.7843137254901961</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L9">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="M9">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -833,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -841,13 +844,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.7833333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L10">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M10">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -859,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -867,13 +870,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7777777777777778</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L11">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M11">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -885,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -893,13 +896,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7758620689655172</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="L12">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -911,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -919,13 +922,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7734375</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L13">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="M13">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -937,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -945,13 +948,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7222222222222222</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L14">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M14">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -963,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -971,13 +974,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.704225352112676</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="M15">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -989,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -997,13 +1000,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.7</v>
+        <v>0.6375</v>
       </c>
       <c r="L16">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="M16">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1015,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1023,13 +1026,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6698113207547169</v>
+        <v>0.62</v>
       </c>
       <c r="L17">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="M17">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1041,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1049,13 +1052,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6276595744680851</v>
+        <v>0.5535248041775457</v>
       </c>
       <c r="L18">
-        <v>59</v>
+        <v>212</v>
       </c>
       <c r="M18">
-        <v>59</v>
+        <v>212</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1067,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>35</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1075,13 +1078,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6170212765957447</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1093,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1101,13 +1104,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1119,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1127,13 +1130,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5714285714285714</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="L21">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M21">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1145,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1153,13 +1156,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5208333333333334</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="M22">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1171,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1179,13 +1182,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5195822454308094</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L23">
-        <v>199</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>199</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1197,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>184</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1205,13 +1208,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.4764705882352941</v>
+        <v>0.4711864406779661</v>
       </c>
       <c r="L24">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="M24">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1223,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>178</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1231,13 +1234,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.449438202247191</v>
+        <v>0.4676470588235294</v>
       </c>
       <c r="L25">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="M25">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1249,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>49</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1257,13 +1260,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4203389830508474</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L26">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1275,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>171</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1283,13 +1286,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.3556485355648535</v>
+        <v>0.3765690376569037</v>
       </c>
       <c r="L27">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M27">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1301,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1309,13 +1312,13 @@
         <v>38</v>
       </c>
       <c r="K28">
-        <v>0.03691275167785235</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L28">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M28">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1327,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>861</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1335,25 +1338,25 @@
         <v>39</v>
       </c>
       <c r="K29">
-        <v>0.01260504201680672</v>
+        <v>0.04809843400447427</v>
       </c>
       <c r="L29">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="N29">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>2115</v>
+        <v>851</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1361,24 +1364,50 @@
         <v>40</v>
       </c>
       <c r="K30">
-        <v>0.009342783505154639</v>
+        <v>0.03551609322974473</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M30">
         <v>32</v>
       </c>
       <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31">
+        <v>0.009342783505154639</v>
+      </c>
+      <c r="L31">
+        <v>29</v>
+      </c>
+      <c r="M31">
+        <v>32</v>
+      </c>
+      <c r="N31">
         <v>0.91</v>
       </c>
-      <c r="O30">
+      <c r="O31">
         <v>0.08999999999999997</v>
       </c>
-      <c r="P30" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q30">
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31">
         <v>3075</v>
       </c>
     </row>
